--- a/квизы.xlsx
+++ b/квизы.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.i.ermolaev\Documents\Kviz\saytskviZami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487EE91-3499-4260-9DE9-2BC9A2DE742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B682E61-8A21-4747-A5CE-B6ABEF6F10FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>сделать квизы</t>
   </si>
@@ -48,11 +46,14 @@
   <si>
     <t>релиз</t>
   </si>
+  <si>
+    <t>сделать шапку</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -116,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,19 +437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50788FF-4A54-4D79-A8CA-2B87D03CCFA4}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -518,41 +526,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
